--- a/data/trans_bre/VUL_ANS-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>148,71%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>131,36%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,78</t>
+          <t>-0,59; 2,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,62</t>
+          <t>-0,41; 5,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,29</t>
+          <t>-0,04; 3,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 572,33</t>
+          <t>-21,64; 154,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 248,74</t>
+          <t>-11,27; 283,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 240,69</t>
+          <t>-12,55; 607,37</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,65</t>
+          <t>-2,38; 2,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,4</t>
+          <t>-0,34; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,23</t>
+          <t>-1,48; 3,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 223,57</t>
+          <t>-48,36; 130,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 219,1</t>
+          <t>-11,05; 239,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 180,26</t>
+          <t>-40,96; 222,13</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>168,18%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>122,03%</t>
+          <t>530,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>236,47%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 9,17</t>
+          <t>0,58; 6,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,9</t>
+          <t>4,78; 17,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,1</t>
+          <t>1,51; 11,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 590,71</t>
+          <t>11,13; 233,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,53; 281,68</t>
+          <t>111,52; 3011,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 211,24</t>
+          <t>22,94; 761,99</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>117,44%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>62,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>123,16%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,64</t>
+          <t>-0,58; 3,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,07</t>
+          <t>-2,36; 6,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,22</t>
+          <t>0,99; 5,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,56; 335,56</t>
+          <t>-12,42; 111,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 160,25</t>
+          <t>-40,37; 195,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 132,92</t>
+          <t>22,28; 363,36</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>159,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>138,0%</t>
+          <t>169,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>154,53%</t>
+          <t>54,15%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,14</t>
+          <t>1,46; 6,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,18</t>
+          <t>0,36; 9,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,65</t>
+          <t>-1,79; 5,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 397,88</t>
+          <t>30,53; 463,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,72; 278,98</t>
+          <t>9,47; 528,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,9; 389,5</t>
+          <t>-43,61; 284,2</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>102,61%</t>
+          <t>809,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>138,08%</t>
+          <t>192,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>800,23%</t>
+          <t>134,13%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 28,07</t>
+          <t>4,47; 9,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,36</t>
+          <t>-1,28; 10,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,27</t>
+          <t>-7,52; 30,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>154,06; 3976,73</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-19,44; 1442,99</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 460,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>221,52; 2892,4</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>103,06%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>109,21%</t>
+          <t>136,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>100,77%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,68</t>
+          <t>1,43; 3,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,95</t>
+          <t>2,46; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,4</t>
+          <t>1,24; 3,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,19; 189,52</t>
+          <t>38,54; 121,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,36; 156,53</t>
+          <t>66,81; 268,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,54; 135,28</t>
+          <t>44,58; 196,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_ANS-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,82</t>
+          <t>-1,12; 1,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,89</t>
+          <t>-0,29; 6,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 154,91</t>
+          <t>-33,95; 117,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 283,91</t>
+          <t>-11,77; 264,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,77</t>
+          <t>-2,11; 3,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,06</t>
+          <t>-0,26; 7,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 130,76</t>
+          <t>-43,68; 127,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 239,05</t>
+          <t>-10,43; 223,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>146,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,25</t>
+          <t>1,71; 8,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 17,66</t>
+          <t>5,71; 16,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 233,42</t>
+          <t>41,7; 324,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>111,52; 3011,52</t>
+          <t>112,38; 2730,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,91</t>
+          <t>-0,67; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,78</t>
+          <t>-2,5; 6,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 111,44</t>
+          <t>-12,3; 105,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 195,39</t>
+          <t>-43,97; 204,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>159,33%</t>
+          <t>302,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,33</t>
+          <t>3,31; 7,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,82</t>
+          <t>0,71; 9,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,53; 463,14</t>
+          <t>84,38; 788,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,47; 528,64</t>
+          <t>14,92; 514,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>809,61%</t>
+          <t>327,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,21</t>
+          <t>1,76; 7,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,25</t>
+          <t>-0,08; 10,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154,06; 3976,73</t>
+          <t>33,81; 3439,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 1442,99</t>
+          <t>-11,95; 1804,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,42</t>
+          <t>1,41; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,85</t>
+          <t>2,02; 6,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,54; 121,51</t>
+          <t>40,31; 120,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,81; 268,84</t>
+          <t>54,4; 261,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_ANS-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,42</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>96,61%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>131,36%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>17,61%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>75,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>131,36%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,18; 6,67</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 3,66</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,12; 1,93</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 6,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 3,66</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-3,67; 312,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 607,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-33,95; 117,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 264,46</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-12,55; 607,37</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>57,49%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>12,5%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>71,07%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,73; 6,71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,11; 3,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 7,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 3,43</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-14,68; 196,02</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-40,96; 222,13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-43,68; 127,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 223,42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-40,96; 222,13</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,66</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,58</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>194,78%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>236,47%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>146,78%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>530,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>236,47%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,88; 13,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 11,74</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,71; 8,45</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 16,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 11,74</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>40,58; 521,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 761,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>41,7; 324,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>112,38; 2730,9</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>22,94; 761,99</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,36</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>131,93%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>123,16%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>30,46%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>62,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>123,16%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,92; 8,49</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 5,93</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,67; 3,5</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 6,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 5,93</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>47,08; 287,39</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22,28; 363,36</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-12,3; 105,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-43,97; 204,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>22,28; 363,36</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,31</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>5,5</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>274,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>302,68%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>169,06%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>54,15%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,73; 11,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 5,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>3,31; 7,9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 9,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 5,14</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>84,77; 777,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; 284,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>84,38; 788,61</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>14,92; 514,42</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-43,61; 284,2</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4,92</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>177,66%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>134,13%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>327,66%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>192,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>134,13%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,11; 10,15</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 30,03</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,76; 7,28</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 10,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 30,03</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-12,18; 967,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>33,81; 3439,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-11,95; 1804,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,3</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>139,54%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>100,77%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>74,85%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>136,9%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>100,77%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,07; 7,17</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 3,66</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,41; 3,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 6,69</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 3,66</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>87,17; 218,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44,58; 196,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>40,31; 120,64</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>54,4; 261,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>44,58; 196,99</t>
         </is>
       </c>
     </row>
